--- a/v1manipulation.xlsx
+++ b/v1manipulation.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FCAE10-8BAD-4E69-959C-56D34C5C19F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
   <si>
     <t>Module Name</t>
   </si>
@@ -55,9 +64,6 @@
     <t>"A new day"</t>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>Quit</t>
   </si>
   <si>
@@ -175,44 +181,49 @@
     <t>"q"</t>
   </si>
   <si>
-    <t>"\n\n"</t>
-  </si>
-  <si>
     <t>""</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Single characters + &lt;Enter&gt;</t>
   </si>
   <si>
-    <t>"s\n"</t>
+    <t>Pass.</t>
+  </si>
+  <si>
+    <t>Pass. This is working as intended, as the program is removing newlines at the end of the string and replacing them with null terminator.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -222,59 +233,58 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF93C47D"/>
-        <bgColor rgb="FF93C47D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE06666"/>
-        <bgColor rgb="FFE06666"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -464,29 +474,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.38"/>
-    <col customWidth="1" min="2" max="2" width="17.38"/>
-    <col customWidth="1" min="3" max="3" width="33.25"/>
-    <col customWidth="1" min="4" max="4" width="28.25"/>
-    <col customWidth="1" min="5" max="5" width="15.13"/>
-    <col customWidth="1" min="6" max="7" width="26.0"/>
-    <col customWidth="1" min="8" max="8" width="9.25"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="115.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="37.5" customHeight="1">
+    <row r="2" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -534,347 +549,347 @@
       <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" ht="37.5" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="37.5" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="37.5" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="37.5" customHeight="1">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="37.5" customHeight="1">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="37.5" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="37.5" customHeight="1">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="37.5" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="37.5" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="37.5" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" ht="37.5" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" ht="37.5" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="6" t="s">
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" ht="37.5" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/v1manipulation.xlsx
+++ b/v1manipulation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\School\cpa\term1\cpr\final\v1_manipulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FCAE10-8BAD-4E69-959C-56D34C5C19F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F71B55-2DE6-409D-82B7-1E8B31E51E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="61">
   <si>
     <t>Module Name</t>
   </si>
@@ -191,6 +191,18 @@
   </si>
   <si>
     <t>Pass. This is working as intended, as the program is removing newlines at the end of the string and replacing them with null terminator.</t>
+  </si>
+  <si>
+    <t>Input that exceeds BUFFER_SIZE</t>
+  </si>
+  <si>
+    <t>Fail. When the input length exceeds the buffer_size macro, the remaining inputs go to buffer, and are taken as the 2nd input.</t>
+  </si>
+  <si>
+    <t>"0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000"</t>
+  </si>
+  <si>
+    <t>'100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000'</t>
   </si>
 </sst>
 </file>
@@ -218,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +249,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -250,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -266,6 +284,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,19 +509,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="115.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -889,6 +913,32 @@
         <v>56</v>
       </c>
     </row>
+    <row r="16" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
